--- a/12/1/3/Subyacente 1957 a 2021 - Mensual.xlsx
+++ b/12/1/3/Subyacente 1957 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
     <t>Serie</t>
   </si>
@@ -1202,6 +1202,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q380"/>
+  <dimension ref="A1:Q381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15879,7 +15882,7 @@
         <v>1.4</v>
       </c>
       <c r="D374">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E374">
         <v>1.4</v>
@@ -15932,7 +15935,7 @@
         <v>0.9</v>
       </c>
       <c r="D375">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E375">
         <v>1.1</v>
@@ -15985,7 +15988,7 @@
         <v>1.1</v>
       </c>
       <c r="D376">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E376">
         <v>0.9</v>
@@ -16038,7 +16041,7 @@
         <v>1.3</v>
       </c>
       <c r="D377">
-        <v>-0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="E377">
         <v>0.7</v>
@@ -16091,7 +16094,7 @@
         <v>2</v>
       </c>
       <c r="D378">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="E378">
         <v>1</v>
@@ -16144,7 +16147,7 @@
         <v>2.3</v>
       </c>
       <c r="D379">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="E379">
         <v>0.9</v>
@@ -16190,11 +16193,73 @@
       <c r="A380" t="s">
         <v>395</v>
       </c>
+      <c r="B380">
+        <v>4.3</v>
+      </c>
+      <c r="C380">
+        <v>1.8</v>
+      </c>
+      <c r="D380">
+        <v>-0.8</v>
+      </c>
       <c r="E380">
         <v>0.7</v>
       </c>
+      <c r="F380">
+        <v>1.2</v>
+      </c>
+      <c r="G380">
+        <v>1.3</v>
+      </c>
+      <c r="H380">
+        <v>0.7</v>
+      </c>
+      <c r="I380">
+        <v>3.7</v>
+      </c>
+      <c r="J380">
+        <v>2.6</v>
+      </c>
+      <c r="K380">
+        <v>6.8</v>
+      </c>
+      <c r="L380">
+        <v>0.1</v>
+      </c>
+      <c r="M380">
+        <v>55.4</v>
+      </c>
+      <c r="N380">
+        <v>5.4</v>
+      </c>
+      <c r="O380">
+        <v>2.9</v>
+      </c>
+      <c r="P380">
+        <v>4.7</v>
+      </c>
       <c r="Q380">
         <v>2.1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17">
+      <c r="A381" t="s">
+        <v>396</v>
+      </c>
+      <c r="E381">
+        <v>1.6</v>
+      </c>
+      <c r="F381">
+        <v>1.3</v>
+      </c>
+      <c r="L381">
+        <v>0.1</v>
+      </c>
+      <c r="O381">
+        <v>3.1</v>
+      </c>
+      <c r="Q381">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/12/1/3/Subyacente 1957 a 2021 - Mensual.xlsx
+++ b/12/1/3/Subyacente 1957 a 2021 - Mensual.xlsx
@@ -16246,17 +16246,44 @@
       <c r="A381" t="s">
         <v>396</v>
       </c>
+      <c r="B381">
+        <v>4</v>
+      </c>
+      <c r="C381">
+        <v>3.1</v>
+      </c>
       <c r="E381">
         <v>1.6</v>
       </c>
       <c r="F381">
         <v>1.3</v>
       </c>
+      <c r="G381">
+        <v>1.2</v>
+      </c>
+      <c r="I381">
+        <v>3.9</v>
+      </c>
+      <c r="J381">
+        <v>3.1</v>
+      </c>
+      <c r="K381">
+        <v>7.1</v>
+      </c>
       <c r="L381">
         <v>0.1</v>
       </c>
+      <c r="M381">
+        <v>55.5</v>
+      </c>
+      <c r="N381">
+        <v>6.1</v>
+      </c>
       <c r="O381">
         <v>3.1</v>
+      </c>
+      <c r="P381">
+        <v>4.8</v>
       </c>
       <c r="Q381">
         <v>2.4</v>

--- a/12/1/3/Subyacente 1957 a 2021 - Mensual.xlsx
+++ b/12/1/3/Subyacente 1957 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>Serie</t>
   </si>
@@ -1205,6 +1205,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q381"/>
+  <dimension ref="A1:Q382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16252,6 +16255,9 @@
       <c r="C381">
         <v>3.1</v>
       </c>
+      <c r="D381">
+        <v>-0.7</v>
+      </c>
       <c r="E381">
         <v>1.6</v>
       </c>
@@ -16261,6 +16267,9 @@
       <c r="G381">
         <v>1.2</v>
       </c>
+      <c r="H381">
+        <v>0.6</v>
+      </c>
       <c r="I381">
         <v>3.9</v>
       </c>
@@ -16287,6 +16296,17 @@
       </c>
       <c r="Q381">
         <v>2.4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17">
+      <c r="A382" t="s">
+        <v>397</v>
+      </c>
+      <c r="E382">
+        <v>1.9</v>
+      </c>
+      <c r="Q382">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>

--- a/12/1/3/Subyacente 1957 a 2021 - Mensual.xlsx
+++ b/12/1/3/Subyacente 1957 a 2021 - Mensual.xlsx
@@ -16302,8 +16302,38 @@
       <c r="A382" t="s">
         <v>397</v>
       </c>
+      <c r="B382">
+        <v>4</v>
+      </c>
       <c r="E382">
         <v>1.9</v>
+      </c>
+      <c r="F382">
+        <v>1.5</v>
+      </c>
+      <c r="G382">
+        <v>1.2</v>
+      </c>
+      <c r="I382">
+        <v>4.2</v>
+      </c>
+      <c r="K382">
+        <v>7.6</v>
+      </c>
+      <c r="L382">
+        <v>0.2</v>
+      </c>
+      <c r="M382">
+        <v>57</v>
+      </c>
+      <c r="N382">
+        <v>6.9</v>
+      </c>
+      <c r="O382">
+        <v>3</v>
+      </c>
+      <c r="P382">
+        <v>4.9</v>
       </c>
       <c r="Q382">
         <v>2.6</v>

--- a/12/1/3/Subyacente 1957 a 2021 - Mensual.xlsx
+++ b/12/1/3/Subyacente 1957 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t>Serie</t>
   </si>
@@ -1208,6 +1208,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q382"/>
+  <dimension ref="A1:Q383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16305,6 +16308,12 @@
       <c r="B382">
         <v>4</v>
       </c>
+      <c r="C382">
+        <v>2.9</v>
+      </c>
+      <c r="D382">
+        <v>-0.8</v>
+      </c>
       <c r="E382">
         <v>1.9</v>
       </c>
@@ -16314,9 +16323,15 @@
       <c r="G382">
         <v>1.2</v>
       </c>
+      <c r="H382">
+        <v>0.6</v>
+      </c>
       <c r="I382">
         <v>4.2</v>
       </c>
+      <c r="J382">
+        <v>4.3</v>
+      </c>
       <c r="K382">
         <v>7.6</v>
       </c>
@@ -16337,6 +16352,20 @@
       </c>
       <c r="Q382">
         <v>2.6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17">
+      <c r="A383" t="s">
+        <v>398</v>
+      </c>
+      <c r="E383">
+        <v>2.1</v>
+      </c>
+      <c r="F383">
+        <v>2.4</v>
+      </c>
+      <c r="Q383">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
